--- a/test_fxcm_fix_conformance/results/Retail_FIX_Conformance_Test.xlsx
+++ b/test_fxcm_fix_conformance/results/Retail_FIX_Conformance_Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dani/zorro/FXCM/conformace_20240731/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dani/zorro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086622D4-C707-724A-9F88-BB6F0FF72BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{960BE2CF-0347-614C-BBB5-D58775190D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5880" yWindow="800" windowWidth="28680" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,27 +136,27 @@
     <t>Tester: Daniel Egloff</t>
   </si>
   <si>
+    <t>fix_message_tracer_HeartbeatTest.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fix_message_tracer_MarketDataSubscriptionSnapshotTest.log fix_message_tracer_MarketDataUnsubscriptionTest.log </t>
+  </si>
+  <si>
+    <t>fix_message_tracer_MarketDataSubscriptionTest.log fix_message_tracer_MarketDataSubscriptionSnapshotThenIncrementalTest.log</t>
+  </si>
+  <si>
+    <t>No FOK tested, just testing resting LO with GTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO IOC tested, just testing resting LO with GTC </t>
+  </si>
+  <si>
     <t>FIX Credentials:
 SocketConnectHost=fixdemo1.fxcorporate.com
 SocketConnectPort=80
-SenderCompID=[MD_]D161620797_client1
+SenderCompID=masked
 TargetCompID=FXCM
 TargetSubID=MINIDEMO</t>
-  </si>
-  <si>
-    <t>fix_message_tracer_HeartbeatTest.log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fix_message_tracer_MarketDataSubscriptionSnapshotTest.log fix_message_tracer_MarketDataUnsubscriptionTest.log </t>
-  </si>
-  <si>
-    <t>fix_message_tracer_MarketDataSubscriptionTest.log fix_message_tracer_MarketDataSubscriptionSnapshotThenIncrementalTest.log</t>
-  </si>
-  <si>
-    <t>No FOK tested, just testing resting LO with GTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO IOC tested, just testing resting LO with GTC </t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -467,9 +467,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -779,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -814,7 +811,7 @@
     <row r="3" spans="1:8" ht="96">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -962,7 +959,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>18</v>
@@ -981,8 +978,8 @@
       <c r="C12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>37</v>
+      <c r="D12" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>18</v>
@@ -1030,7 +1027,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
       <c r="H14" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="60">
@@ -1050,7 +1047,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
       <c r="H15" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1063,8 +1060,8 @@
       <c r="C16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>35</v>
+      <c r="D16" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>18</v>
